--- a/output/shape_data/mands/Gmole_mandibles_morphometrics_summary_GB.xlsx
+++ b/output/shape_data/mands/Gmole_mandibles_morphometrics_summary_GB.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="96" windowWidth="17220" windowHeight="9276"/>
+    <workbookView xWindow="96" yWindow="156" windowWidth="17220" windowHeight="9216"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$16</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -188,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -201,6 +204,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,7 +511,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,7 +697,7 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="1">
@@ -714,7 +720,7 @@
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="1">
@@ -740,7 +746,7 @@
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="1">
@@ -763,7 +769,7 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="1">
@@ -786,7 +792,7 @@
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="1">
@@ -809,7 +815,7 @@
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="1">
